--- a/data/investment_data_ns.xlsx
+++ b/data/investment_data_ns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardzhang/github/OffMod_north_sea_integer/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardzhang/github/OffMod_north_sea_integer_revised_co2tax/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB3E44F-3AF0-7445-8CED-8D8A8E8D02E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B123F007-C63D-374D-9007-FF26E0030166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="-23060" windowWidth="35840" windowHeight="20880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -719,7 +719,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="221" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1366,7 +1366,7 @@
         <v>10000000000</v>
       </c>
       <c r="G20" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>35</v>
